--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CH1011687\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CH1011687\Desktop\ICT\BLJ\MonitoringPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51C6DDD-1722-4547-9609-99B660A86EAD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1CFBD8-9D70-4776-87E7-9472C66BA033}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="60">
   <si>
     <t>Nr.</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>20.12.</t>
+  </si>
+  <si>
+    <t>_</t>
   </si>
 </sst>
 </file>
@@ -1535,22 +1538,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1609,10 +1612,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2122,8 +2125,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2720,11 +2723,11 @@
       </c>
       <c r="C9" s="41">
         <f>SUM(C10:C13)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D9" s="42">
         <f>SUM(D10:D13)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="31"/>
@@ -2804,7 +2807,9 @@
       </c>
       <c r="G10" s="53"/>
       <c r="H10" s="54"/>
-      <c r="I10" s="87"/>
+      <c r="I10" s="87">
+        <v>4</v>
+      </c>
       <c r="J10" s="55"/>
       <c r="K10" s="56"/>
       <c r="L10" s="57"/>
@@ -2866,10 +2871,12 @@
       <c r="B11" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="49">
+        <v>3</v>
+      </c>
       <c r="D11" s="83">
         <f>SUM(G11:BJ11)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" s="50">
         <v>1</v>
@@ -2878,10 +2885,12 @@
       <c r="G11" s="59"/>
       <c r="H11" s="60"/>
       <c r="I11" s="61"/>
-      <c r="J11" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="85"/>
+      <c r="J11" s="63">
+        <v>2</v>
+      </c>
+      <c r="K11" s="85">
+        <v>1</v>
+      </c>
       <c r="L11" s="62"/>
       <c r="M11" s="58" t="s">
         <v>5</v>
@@ -2950,7 +2959,7 @@
       </c>
       <c r="D12" s="83">
         <f>SUM(G12:BJ12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="50">
         <v>1</v>
@@ -2960,7 +2969,9 @@
       <c r="H12" s="60"/>
       <c r="I12" s="61"/>
       <c r="J12" s="61"/>
-      <c r="K12" s="63"/>
+      <c r="K12" s="63">
+        <v>1</v>
+      </c>
       <c r="L12" s="57"/>
       <c r="M12" s="58"/>
       <c r="N12" s="59"/>
@@ -3021,7 +3032,7 @@
         <v>54</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D13" s="83"/>
       <c r="E13" s="50">
@@ -3096,11 +3107,11 @@
       </c>
       <c r="C14" s="41">
         <f>SUM(C15:C17)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D14" s="42">
         <f>SUM(D15:D17)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
@@ -3168,21 +3179,29 @@
       <c r="B15" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="49">
+        <v>3</v>
+      </c>
       <c r="D15" s="83">
         <f>SUM(G15:BJ15)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="50"/>
+        <v>6</v>
+      </c>
+      <c r="E15" s="50">
+        <v>1</v>
+      </c>
       <c r="F15" s="89" t="s">
         <v>57</v>
       </c>
       <c r="G15" s="53"/>
       <c r="H15" s="54"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="63" t="s">
-        <v>5</v>
+      <c r="I15" s="68">
+        <v>3</v>
+      </c>
+      <c r="J15" s="87">
+        <v>2</v>
+      </c>
+      <c r="K15" s="63">
+        <v>1</v>
       </c>
       <c r="L15" s="57"/>
       <c r="M15" s="58"/>
@@ -3243,19 +3262,25 @@
       <c r="B16" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="49"/>
+      <c r="C16" s="49">
+        <v>10</v>
+      </c>
       <c r="D16" s="83">
         <f>SUM(G16:BJ16)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="50"/>
+        <v>8</v>
+      </c>
+      <c r="E16" s="50">
+        <v>1</v>
+      </c>
       <c r="F16" s="51"/>
       <c r="G16" s="59"/>
       <c r="H16" s="60"/>
       <c r="I16" s="55"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="63" t="s">
-        <v>5</v>
+      <c r="J16" s="55">
+        <v>4</v>
+      </c>
+      <c r="K16" s="63">
+        <v>4</v>
       </c>
       <c r="L16" s="57"/>
       <c r="M16" s="58"/>
@@ -3265,9 +3290,7 @@
         <v>5</v>
       </c>
       <c r="Q16" s="87"/>
-      <c r="R16" s="63" t="s">
-        <v>5</v>
-      </c>
+      <c r="R16" s="55"/>
       <c r="S16" s="57"/>
       <c r="T16" s="58"/>
       <c r="U16" s="60"/>
@@ -3391,7 +3414,7 @@
       </c>
       <c r="C18" s="41">
         <f>SUM(C19:C30)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
@@ -3463,12 +3486,16 @@
       <c r="B19" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="49">
+        <v>2</v>
+      </c>
       <c r="D19" s="83">
         <f>SUM(G19:BJ19)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="50"/>
+      <c r="E19" s="50">
+        <v>1</v>
+      </c>
       <c r="F19" s="51"/>
       <c r="G19" s="53"/>
       <c r="H19" s="54"/>
@@ -3485,9 +3512,7 @@
       <c r="Q19" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="R19" s="63" t="s">
-        <v>5</v>
-      </c>
+      <c r="R19" s="55"/>
       <c r="S19" s="57"/>
       <c r="T19" s="58"/>
       <c r="U19" s="60"/>
@@ -3540,12 +3565,16 @@
       <c r="B20" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="49">
+        <v>10</v>
+      </c>
       <c r="D20" s="83">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="50"/>
+      <c r="E20" s="50">
+        <v>1</v>
+      </c>
       <c r="F20" s="51"/>
       <c r="G20" s="59"/>
       <c r="H20" s="60"/>
@@ -3562,16 +3591,14 @@
       <c r="Q20" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="R20" s="63" t="s">
-        <v>5</v>
-      </c>
+      <c r="R20" s="55"/>
       <c r="S20" s="57"/>
       <c r="T20" s="58"/>
       <c r="U20" s="60"/>
       <c r="V20" s="60"/>
       <c r="W20" s="55"/>
       <c r="X20" s="55"/>
-      <c r="Y20" s="55"/>
+      <c r="Y20" s="56"/>
       <c r="Z20" s="57"/>
       <c r="AA20" s="58"/>
       <c r="AB20" s="60"/>
@@ -3617,15 +3644,17 @@
       <c r="B21" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="49"/>
+      <c r="C21" s="49">
+        <v>2</v>
+      </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="50"/>
-      <c r="F21" s="52" t="s">
-        <v>58</v>
-      </c>
+      <c r="E21" s="50">
+        <v>1</v>
+      </c>
+      <c r="F21" s="52"/>
       <c r="G21" s="59"/>
       <c r="H21" s="60"/>
       <c r="I21" s="55"/>
@@ -3644,15 +3673,9 @@
       <c r="T21" s="58"/>
       <c r="U21" s="60"/>
       <c r="V21" s="60"/>
-      <c r="W21" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="X21" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="63" t="s">
-        <v>5</v>
-      </c>
+      <c r="W21" s="63"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="56"/>
       <c r="Z21" s="57"/>
       <c r="AA21" s="58"/>
       <c r="AB21" s="60"/>
@@ -3698,15 +3721,17 @@
       <c r="B22" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="49">
+        <v>2</v>
+      </c>
       <c r="D22" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="52" t="s">
-        <v>58</v>
-      </c>
+      <c r="E22" s="50">
+        <v>1</v>
+      </c>
+      <c r="F22" s="52"/>
       <c r="G22" s="59"/>
       <c r="H22" s="60"/>
       <c r="I22" s="55"/>
@@ -3725,15 +3750,11 @@
       <c r="T22" s="58"/>
       <c r="U22" s="60"/>
       <c r="V22" s="60"/>
-      <c r="W22" s="63" t="s">
-        <v>5</v>
-      </c>
+      <c r="W22" s="63"/>
       <c r="X22" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="Y22" s="63" t="s">
-        <v>5</v>
-      </c>
+      <c r="Y22" s="56"/>
       <c r="Z22" s="57"/>
       <c r="AA22" s="58"/>
       <c r="AB22" s="60"/>
@@ -3779,15 +3800,17 @@
       <c r="B23" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="49"/>
+      <c r="C23" s="49">
+        <v>2</v>
+      </c>
       <c r="D23" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="52" t="s">
-        <v>58</v>
-      </c>
+      <c r="E23" s="50">
+        <v>1</v>
+      </c>
+      <c r="F23" s="52"/>
       <c r="G23" s="59"/>
       <c r="H23" s="60"/>
       <c r="I23" s="61"/>
@@ -3806,15 +3829,11 @@
       <c r="T23" s="58"/>
       <c r="U23" s="60"/>
       <c r="V23" s="60"/>
-      <c r="W23" s="63" t="s">
-        <v>5</v>
-      </c>
+      <c r="W23" s="63"/>
       <c r="X23" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="Y23" s="63" t="s">
-        <v>5</v>
-      </c>
+      <c r="Y23" s="56"/>
       <c r="Z23" s="57"/>
       <c r="AA23" s="58"/>
       <c r="AB23" s="60"/>
@@ -3860,12 +3879,16 @@
       <c r="B24" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="49"/>
+      <c r="C24" s="49">
+        <v>2</v>
+      </c>
       <c r="D24" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="50"/>
+      <c r="E24" s="50">
+        <v>1</v>
+      </c>
       <c r="F24" s="52" t="s">
         <v>58</v>
       </c>
@@ -3887,15 +3910,11 @@
       <c r="T24" s="58"/>
       <c r="U24" s="60"/>
       <c r="V24" s="60"/>
-      <c r="W24" s="63" t="s">
+      <c r="W24" s="63"/>
+      <c r="X24" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="X24" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y24" s="63" t="s">
-        <v>5</v>
-      </c>
+      <c r="Y24" s="56"/>
       <c r="Z24" s="57"/>
       <c r="AA24" s="58"/>
       <c r="AB24" s="60"/>
@@ -3941,15 +3960,17 @@
       <c r="B25" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="49">
+        <v>8</v>
+      </c>
       <c r="D25" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="50"/>
-      <c r="F25" s="52" t="s">
-        <v>58</v>
-      </c>
+      <c r="E25" s="50">
+        <v>2</v>
+      </c>
+      <c r="F25" s="52"/>
       <c r="G25" s="59"/>
       <c r="H25" s="60"/>
       <c r="I25" s="55"/>
@@ -3967,9 +3988,7 @@
       <c r="U25" s="60"/>
       <c r="V25" s="60"/>
       <c r="W25" s="56"/>
-      <c r="X25" s="63" t="s">
-        <v>5</v>
-      </c>
+      <c r="X25" s="56"/>
       <c r="Y25" s="63" t="s">
         <v>5</v>
       </c>
@@ -4018,15 +4037,17 @@
       <c r="B26" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="49"/>
+      <c r="C26" s="49">
+        <v>2</v>
+      </c>
       <c r="D26" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="52" t="s">
-        <v>58</v>
-      </c>
+      <c r="E26" s="50">
+        <v>3</v>
+      </c>
+      <c r="F26" s="52"/>
       <c r="G26" s="59"/>
       <c r="H26" s="60"/>
       <c r="I26" s="55"/>
@@ -4044,12 +4065,8 @@
       <c r="U26" s="60"/>
       <c r="V26" s="60"/>
       <c r="W26" s="56"/>
-      <c r="X26" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y26" s="63" t="s">
-        <v>5</v>
-      </c>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="56"/>
       <c r="Z26" s="57"/>
       <c r="AA26" s="58"/>
       <c r="AB26" s="60"/>
@@ -4095,15 +4112,17 @@
       <c r="B27" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="49"/>
+      <c r="C27" s="49">
+        <v>2</v>
+      </c>
       <c r="D27" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="52" t="s">
-        <v>58</v>
-      </c>
+      <c r="E27" s="50">
+        <v>3</v>
+      </c>
+      <c r="F27" s="52"/>
       <c r="G27" s="59"/>
       <c r="H27" s="60"/>
       <c r="I27" s="55"/>
@@ -4121,12 +4140,8 @@
       <c r="U27" s="60"/>
       <c r="V27" s="60"/>
       <c r="W27" s="56"/>
-      <c r="X27" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y27" s="63" t="s">
-        <v>5</v>
-      </c>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="56"/>
       <c r="Z27" s="57"/>
       <c r="AA27" s="58"/>
       <c r="AB27" s="60"/>
@@ -4176,9 +4191,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="50"/>
-      <c r="F28" s="52" t="s">
-        <v>58</v>
-      </c>
+      <c r="F28" s="52"/>
       <c r="G28" s="59"/>
       <c r="H28" s="60"/>
       <c r="I28" s="55"/>
@@ -4196,12 +4209,8 @@
       <c r="U28" s="60"/>
       <c r="V28" s="60"/>
       <c r="W28" s="56"/>
-      <c r="X28" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y28" s="63" t="s">
-        <v>5</v>
-      </c>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
       <c r="Z28" s="57"/>
       <c r="AA28" s="58"/>
       <c r="AB28" s="60"/>
@@ -4251,9 +4260,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="50"/>
-      <c r="F29" s="52" t="s">
-        <v>58</v>
-      </c>
+      <c r="F29" s="52"/>
       <c r="G29" s="71"/>
       <c r="H29" s="72"/>
       <c r="I29" s="55"/>
@@ -4389,7 +4396,7 @@
       </c>
       <c r="C31" s="41">
         <f>SUM(C32:C35)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D31" s="42">
         <f>SUM(D32:D35)</f>
@@ -4461,7 +4468,9 @@
       <c r="B32" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="49"/>
+      <c r="C32" s="49">
+        <v>1</v>
+      </c>
       <c r="D32" s="83">
         <f>SUM(G32:BJ32)</f>
         <v>0</v>
@@ -4508,10 +4517,8 @@
       <c r="AR32" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="AS32" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT32" s="56"/>
+      <c r="AS32" s="55"/>
+      <c r="AT32" s="55"/>
       <c r="AU32" s="57"/>
       <c r="AV32" s="58"/>
       <c r="AW32" s="53"/>
@@ -4536,7 +4543,9 @@
       <c r="B33" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="49"/>
+      <c r="C33" s="49">
+        <v>2</v>
+      </c>
       <c r="D33" s="83">
         <f t="shared" ref="D33:D35" si="1">SUM(G33:BJ33)</f>
         <v>0</v>
@@ -4583,10 +4592,8 @@
       <c r="AR33" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="AS33" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT33" s="56"/>
+      <c r="AS33" s="55"/>
+      <c r="AT33" s="55"/>
       <c r="AU33" s="57"/>
       <c r="AV33" s="58"/>
       <c r="AW33" s="59"/>
@@ -4611,7 +4618,9 @@
       <c r="B34" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="49"/>
+      <c r="C34" s="49">
+        <v>4</v>
+      </c>
       <c r="D34" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4658,10 +4667,8 @@
       <c r="AR34" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="AS34" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT34" s="56"/>
+      <c r="AS34" s="55"/>
+      <c r="AT34" s="55"/>
       <c r="AU34" s="57"/>
       <c r="AV34" s="58"/>
       <c r="AW34" s="59"/>
@@ -4729,8 +4736,8 @@
       <c r="AP35" s="69"/>
       <c r="AQ35" s="70"/>
       <c r="AR35" s="56"/>
-      <c r="AS35" s="56"/>
-      <c r="AT35" s="56"/>
+      <c r="AS35" s="55"/>
+      <c r="AT35" s="55"/>
       <c r="AU35" s="57"/>
       <c r="AV35" s="58"/>
       <c r="AW35" s="69"/>
@@ -4757,7 +4764,7 @@
       </c>
       <c r="C36" s="41">
         <f>SUM(C37:C38)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D36" s="42">
         <f>SUM(D37:D38)</f>
@@ -4829,7 +4836,9 @@
       <c r="B37" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="49"/>
+      <c r="C37" s="49">
+        <v>5</v>
+      </c>
       <c r="D37" s="83">
         <f>SUM(G37:BJ37)</f>
         <v>0</v>
@@ -4873,9 +4882,7 @@
       <c r="AO37" s="58"/>
       <c r="AP37" s="53"/>
       <c r="AQ37" s="54"/>
-      <c r="AR37" s="63" t="s">
-        <v>5</v>
-      </c>
+      <c r="AR37" s="55"/>
       <c r="AS37" s="63" t="s">
         <v>5</v>
       </c>
@@ -4946,7 +4953,7 @@
       <c r="AO38" s="58"/>
       <c r="AP38" s="69"/>
       <c r="AQ38" s="70"/>
-      <c r="AR38" s="56"/>
+      <c r="AR38" s="55"/>
       <c r="AS38" s="56"/>
       <c r="AT38" s="56"/>
       <c r="AU38" s="57"/>
@@ -4975,7 +4982,7 @@
       </c>
       <c r="C39" s="41">
         <f>SUM(C40:C42)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D39" s="42">
         <f>SUM(D40:D42)</f>
@@ -5047,7 +5054,9 @@
       <c r="B40" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="49"/>
+      <c r="C40" s="49">
+        <v>1</v>
+      </c>
       <c r="D40" s="83">
         <f>SUM(G40:BJ40)</f>
         <v>0</v>
@@ -5091,9 +5100,7 @@
       <c r="AO40" s="58"/>
       <c r="AP40" s="53"/>
       <c r="AQ40" s="54"/>
-      <c r="AR40" s="63" t="s">
-        <v>5</v>
-      </c>
+      <c r="AR40" s="55"/>
       <c r="AS40" s="63" t="s">
         <v>5</v>
       </c>
@@ -5122,7 +5129,9 @@
       <c r="B41" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="49"/>
+      <c r="C41" s="49">
+        <v>2</v>
+      </c>
       <c r="D41" s="83">
         <f t="shared" ref="D41:D42" si="2">SUM(G41:BJ41)</f>
         <v>0</v>
@@ -5166,9 +5175,7 @@
       <c r="AO41" s="58"/>
       <c r="AP41" s="59"/>
       <c r="AQ41" s="60"/>
-      <c r="AR41" s="63" t="s">
-        <v>5</v>
-      </c>
+      <c r="AR41" s="55"/>
       <c r="AS41" s="63" t="s">
         <v>5</v>
       </c>
@@ -5266,11 +5273,11 @@
       </c>
       <c r="C43" s="37">
         <f>C39+C36+C31+C18+C14+C9</f>
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5284,15 +5291,15 @@
       </c>
       <c r="I43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L43" s="39">
         <f t="shared" si="3"/>
@@ -5564,11 +5571,11 @@
       <c r="B3" s="97"/>
       <c r="C3" s="80">
         <f>Zeitplanung!C9</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" s="80">
         <f>Zeitplanung!D9</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E3" s="82"/>
       <c r="F3" s="81"/>
@@ -5581,11 +5588,11 @@
       <c r="B4" s="97"/>
       <c r="C4" s="80">
         <f>Zeitplanung!C14</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D4" s="80">
         <f>Zeitplanung!D14</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E4" s="82"/>
       <c r="F4" s="81"/>
@@ -5598,7 +5605,7 @@
       <c r="B5" s="97"/>
       <c r="C5" s="80">
         <f>Zeitplanung!C18</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
@@ -5615,7 +5622,7 @@
       <c r="B6" s="97"/>
       <c r="C6" s="80">
         <f>Zeitplanung!C31</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D6" s="80">
         <f>Zeitplanung!D31</f>
@@ -5631,7 +5638,7 @@
       <c r="B7" s="97"/>
       <c r="C7" s="80">
         <f>Zeitplanung!C36</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="80">
         <f>Zeitplanung!D36</f>
@@ -5647,7 +5654,7 @@
       <c r="B8" s="97"/>
       <c r="C8" s="80">
         <f>Zeitplanung!C39</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="80">
         <f>Zeitplanung!D39</f>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CH1011687\Desktop\ICT\BLJ\MonitoringPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1CFBD8-9D70-4776-87E7-9472C66BA033}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAA0612-E197-4B24-BC8E-99F8542A81A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1615,7 +1615,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>14.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2126,7 +2126,7 @@
   <dimension ref="A1:BJ43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="D14" s="42">
         <f>SUM(D15:D17)</f>
-        <v>14</v>
+        <v>14.25</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="D15" s="83">
         <f>SUM(G15:BJ15)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15" s="50">
         <v>1</v>
@@ -3201,7 +3201,7 @@
         <v>2</v>
       </c>
       <c r="K15" s="63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" s="57"/>
       <c r="M15" s="58"/>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="D16" s="83">
         <f>SUM(G16:BJ16)</f>
-        <v>8</v>
+        <v>7.25</v>
       </c>
       <c r="E16" s="50">
         <v>1</v>
@@ -3280,7 +3280,7 @@
         <v>4</v>
       </c>
       <c r="K16" s="63">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="L16" s="57"/>
       <c r="M16" s="58"/>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>18</v>
+        <v>18.25</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="K43" s="39">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>7.25</v>
       </c>
       <c r="L43" s="39">
         <f t="shared" si="3"/>
@@ -5592,7 +5592,7 @@
       </c>
       <c r="D4" s="80">
         <f>Zeitplanung!D14</f>
-        <v>14</v>
+        <v>14.25</v>
       </c>
       <c r="E4" s="82"/>
       <c r="F4" s="81"/>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CH1011687\Desktop\ICT\BLJ\MonitoringPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAA0612-E197-4B24-BC8E-99F8542A81A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B2A0A0-462B-4C03-B5FA-E63B409D9C95}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="60">
   <si>
     <t>Nr.</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Ist</t>
   </si>
   <si>
-    <t>&lt;Projektname&gt;</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -255,6 +252,9 @@
   </si>
   <si>
     <t>_</t>
+  </si>
+  <si>
+    <t>MonitoringPro</t>
   </si>
 </sst>
 </file>
@@ -1615,10 +1615,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.25</c:v>
+                  <c:v>16.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2126,7 +2126,7 @@
   <dimension ref="A1:BJ43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:62" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2247,7 +2247,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="86"/>
       <c r="H3" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -2377,7 +2377,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="22"/>
       <c r="H5" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="6"/>
@@ -2450,13 +2450,13 @@
       </c>
       <c r="D7" s="91"/>
       <c r="E7" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" s="92"/>
       <c r="I7" s="92"/>
@@ -2465,7 +2465,7 @@
       <c r="L7" s="92"/>
       <c r="M7" s="93"/>
       <c r="N7" s="92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O7" s="92"/>
       <c r="P7" s="92"/>
@@ -2474,7 +2474,7 @@
       <c r="S7" s="92"/>
       <c r="T7" s="93"/>
       <c r="U7" s="92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V7" s="92"/>
       <c r="W7" s="92"/>
@@ -2483,7 +2483,7 @@
       <c r="Z7" s="92"/>
       <c r="AA7" s="93"/>
       <c r="AB7" s="94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC7" s="92"/>
       <c r="AD7" s="92"/>
@@ -2492,7 +2492,7 @@
       <c r="AG7" s="92"/>
       <c r="AH7" s="93"/>
       <c r="AI7" s="92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ7" s="92"/>
       <c r="AK7" s="92"/>
@@ -2501,7 +2501,7 @@
       <c r="AN7" s="92"/>
       <c r="AO7" s="93"/>
       <c r="AP7" s="94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AQ7" s="92"/>
       <c r="AR7" s="92"/>
@@ -2510,7 +2510,7 @@
       <c r="AU7" s="92"/>
       <c r="AV7" s="93"/>
       <c r="AW7" s="92" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AX7" s="92"/>
       <c r="AY7" s="92"/>
@@ -2519,7 +2519,7 @@
       <c r="BB7" s="92"/>
       <c r="BC7" s="93"/>
       <c r="BD7" s="94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="BE7" s="92"/>
       <c r="BF7" s="92"/>
@@ -2543,175 +2543,175 @@
         <v>4</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="I8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="L8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="P8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="S8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="14" t="s">
+      <c r="T8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="V8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="W8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="X8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="Z8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="14" t="s">
+      <c r="AD8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="14" t="s">
+      <c r="AG8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="T8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="U8" s="14" t="s">
+      <c r="AH8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="V8" s="15" t="s">
+      <c r="AK8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="W8" s="15" t="s">
+      <c r="AN8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="X8" s="14" t="s">
+      <c r="AR8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Y8" s="14" t="s">
+      <c r="AU8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Z8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB8" s="16" t="s">
+      <c r="AV8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AC8" s="15" t="s">
+      <c r="AY8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AD8" s="15" t="s">
+      <c r="BB8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="BC8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AE8" s="14" t="s">
+      <c r="BF8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="BH8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AF8" s="14" t="s">
+      <c r="BI8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="AG8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM8" s="14" t="s">
+      <c r="BJ8" s="25" t="s">
         <v>19</v>
-      </c>
-      <c r="AN8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="AP8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="AQ8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="AS8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="AT8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="AV8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="AW8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="AX8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AY8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="AZ8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="BA8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="BB8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="BC8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="BD8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="BE8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="BF8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="BG8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="BH8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="BI8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="BJ8" s="25" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2719,7 +2719,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="41">
         <f>SUM(C10:C13)</f>
@@ -2796,14 +2796,14 @@
         <v>12</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="84"/>
       <c r="E10" s="48">
         <v>1</v>
       </c>
       <c r="F10" s="88" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="53"/>
       <c r="H10" s="54"/>
@@ -2869,7 +2869,7 @@
         <v>102</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="49">
         <v>3</v>
@@ -2952,7 +2952,7 @@
         <v>103</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="49">
         <v>5</v>
@@ -3029,17 +3029,17 @@
         <v>104</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="83"/>
       <c r="E13" s="50">
         <v>1</v>
       </c>
       <c r="F13" s="88" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" s="59"/>
       <c r="H13" s="60"/>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="D14" s="42">
         <f>SUM(D15:D17)</f>
-        <v>14.25</v>
+        <v>16.25</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
@@ -3177,7 +3177,7 @@
         <v>201</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="49">
         <v>3</v>
@@ -3190,7 +3190,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="89" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" s="53"/>
       <c r="H15" s="54"/>
@@ -3260,14 +3260,14 @@
         <v>202</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="49">
         <v>10</v>
       </c>
       <c r="D16" s="83">
         <f>SUM(G16:BJ16)</f>
-        <v>7.25</v>
+        <v>9.25</v>
       </c>
       <c r="E16" s="50">
         <v>1</v>
@@ -3286,10 +3286,12 @@
       <c r="M16" s="58"/>
       <c r="N16" s="59"/>
       <c r="O16" s="60"/>
-      <c r="P16" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="87"/>
+      <c r="P16" s="63">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="87">
+        <v>1</v>
+      </c>
       <c r="R16" s="55"/>
       <c r="S16" s="57"/>
       <c r="T16" s="58"/>
@@ -3418,7 +3420,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3484,14 +3486,14 @@
         <v>301</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="49">
         <v>2</v>
       </c>
       <c r="D19" s="83">
         <f>SUM(G19:BJ19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="50">
         <v>1</v>
@@ -3506,8 +3508,8 @@
       <c r="M19" s="58"/>
       <c r="N19" s="53"/>
       <c r="O19" s="54"/>
-      <c r="P19" s="63" t="s">
-        <v>5</v>
+      <c r="P19" s="63">
+        <v>1</v>
       </c>
       <c r="Q19" s="63" t="s">
         <v>5</v>
@@ -3563,14 +3565,14 @@
         <v>302</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="49">
         <v>10</v>
       </c>
       <c r="D20" s="83">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E20" s="50">
         <v>1</v>
@@ -3585,8 +3587,8 @@
       <c r="M20" s="58"/>
       <c r="N20" s="59"/>
       <c r="O20" s="60"/>
-      <c r="P20" s="63" t="s">
-        <v>5</v>
+      <c r="P20" s="63">
+        <v>6</v>
       </c>
       <c r="Q20" s="63" t="s">
         <v>5</v>
@@ -3642,7 +3644,7 @@
         <v>303</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="49">
         <v>2</v>
@@ -3719,7 +3721,7 @@
         <v>304</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="49">
         <v>2</v>
@@ -3798,7 +3800,7 @@
         <v>305</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="49">
         <v>2</v>
@@ -3877,7 +3879,7 @@
         <v>306</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="49">
         <v>2</v>
@@ -3890,7 +3892,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G24" s="59"/>
       <c r="H24" s="60"/>
@@ -3958,7 +3960,7 @@
         <v>307</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="49">
         <v>8</v>
@@ -4035,7 +4037,7 @@
         <v>308</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="49">
         <v>2</v>
@@ -4110,7 +4112,7 @@
         <v>309</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="49">
         <v>2</v>
@@ -4466,7 +4468,7 @@
         <v>401</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="49">
         <v>1</v>
@@ -4541,7 +4543,7 @@
         <v>402</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="49">
         <v>2</v>
@@ -4616,7 +4618,7 @@
         <v>403</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="49">
         <v>4</v>
@@ -4834,7 +4836,7 @@
         <v>501</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="49">
         <v>5</v>
@@ -5052,7 +5054,7 @@
         <v>601</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" s="49">
         <v>1</v>
@@ -5127,7 +5129,7 @@
         <v>602</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="49">
         <v>2</v>
@@ -5277,7 +5279,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>18.25</v>
+        <v>27.25</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5319,11 +5321,11 @@
       </c>
       <c r="P43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="39">
         <f t="shared" si="3"/>
@@ -5507,7 +5509,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" scenarios="1" formatCells="0"/>
+  <sheetProtection formatCells="0"/>
   <mergeCells count="9">
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="G7:M7"/>
@@ -5592,7 +5594,7 @@
       </c>
       <c r="D4" s="80">
         <f>Zeitplanung!D14</f>
-        <v>14.25</v>
+        <v>16.25</v>
       </c>
       <c r="E4" s="82"/>
       <c r="F4" s="81"/>
@@ -5609,7 +5611,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CH1011687\Desktop\ICT\BLJ\MonitoringPro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CH1011687\Desktop\ICT\Basislehrjahr\BLJ\MonitoringPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B2A0A0-462B-4C03-B5FA-E63B409D9C95}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286E5CD1-DF01-4C8F-A841-432ADD5787A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="60">
   <si>
     <t>Nr.</t>
   </si>
@@ -1612,13 +1612,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>16.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2126,7 +2126,7 @@
   <dimension ref="A1:BJ43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="D9" s="42">
         <f>SUM(D10:D13)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="31"/>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="D12" s="83">
         <f>SUM(G12:BJ12)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E12" s="50">
         <v>1</v>
@@ -2978,7 +2978,9 @@
       <c r="O12" s="60"/>
       <c r="P12" s="61"/>
       <c r="Q12" s="61"/>
-      <c r="R12" s="63"/>
+      <c r="R12" s="63">
+        <v>3</v>
+      </c>
       <c r="S12" s="57"/>
       <c r="T12" s="58"/>
       <c r="U12" s="60"/>
@@ -3420,7 +3422,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3493,7 +3495,7 @@
       </c>
       <c r="D19" s="83">
         <f>SUM(G19:BJ19)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E19" s="50">
         <v>1</v>
@@ -3511,8 +3513,8 @@
       <c r="P19" s="63">
         <v>1</v>
       </c>
-      <c r="Q19" s="63" t="s">
-        <v>5</v>
+      <c r="Q19" s="63">
+        <v>4</v>
       </c>
       <c r="R19" s="55"/>
       <c r="S19" s="57"/>
@@ -3572,7 +3574,7 @@
       </c>
       <c r="D20" s="83">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E20" s="50">
         <v>1</v>
@@ -3590,10 +3592,12 @@
       <c r="P20" s="63">
         <v>6</v>
       </c>
-      <c r="Q20" s="63" t="s">
+      <c r="Q20" s="63">
+        <v>4</v>
+      </c>
+      <c r="R20" s="55">
         <v>5</v>
       </c>
-      <c r="R20" s="55"/>
       <c r="S20" s="57"/>
       <c r="T20" s="58"/>
       <c r="U20" s="60"/>
@@ -3651,7 +3655,7 @@
       </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E21" s="50">
         <v>1</v>
@@ -3668,14 +3672,16 @@
       <c r="O21" s="60"/>
       <c r="P21" s="55"/>
       <c r="Q21" s="55"/>
-      <c r="R21" s="63" t="s">
-        <v>5</v>
+      <c r="R21" s="63">
+        <v>3</v>
       </c>
       <c r="S21" s="57"/>
       <c r="T21" s="58"/>
       <c r="U21" s="60"/>
       <c r="V21" s="60"/>
-      <c r="W21" s="63"/>
+      <c r="W21" s="63">
+        <v>4</v>
+      </c>
       <c r="X21" s="63"/>
       <c r="Y21" s="56"/>
       <c r="Z21" s="57"/>
@@ -3728,7 +3734,7 @@
       </c>
       <c r="D22" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22" s="50">
         <v>1</v>
@@ -3752,7 +3758,9 @@
       <c r="T22" s="58"/>
       <c r="U22" s="60"/>
       <c r="V22" s="60"/>
-      <c r="W22" s="63"/>
+      <c r="W22" s="63">
+        <v>4</v>
+      </c>
       <c r="X22" s="63" t="s">
         <v>5</v>
       </c>
@@ -5279,7 +5287,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>27.25</v>
+        <v>54.25</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5325,11 +5333,11 @@
       </c>
       <c r="Q43" s="39">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S43" s="39">
         <f t="shared" si="3"/>
@@ -5349,7 +5357,7 @@
       </c>
       <c r="W43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X43" s="39">
         <f t="shared" si="3"/>
@@ -5577,7 +5585,7 @@
       </c>
       <c r="D3" s="80">
         <f>Zeitplanung!D9</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E3" s="82"/>
       <c r="F3" s="81"/>
@@ -5611,7 +5619,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>

--- a/Zeitplanung.xlsx
+++ b/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CH1011687\Desktop\ICT\Basislehrjahr\BLJ\MonitoringPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286E5CD1-DF01-4C8F-A841-432ADD5787A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B40A87-EF7A-4C76-B6FB-1CF50660B7D8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="60">
   <si>
     <t>Nr.</t>
   </si>
@@ -1612,22 +1612,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>16.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2125,9 +2125,7 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2727,7 +2725,7 @@
       </c>
       <c r="D9" s="42">
         <f>SUM(D10:D13)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="31"/>
@@ -2959,7 +2957,7 @@
       </c>
       <c r="D12" s="83">
         <f>SUM(G12:BJ12)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" s="50">
         <v>1</v>
@@ -3008,7 +3006,9 @@
       <c r="AQ12" s="60"/>
       <c r="AR12" s="61"/>
       <c r="AS12" s="61"/>
-      <c r="AT12" s="63"/>
+      <c r="AT12" s="63">
+        <v>1</v>
+      </c>
       <c r="AU12" s="57"/>
       <c r="AV12" s="58"/>
       <c r="AW12" s="59"/>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" s="50">
         <v>1</v>
@@ -3680,9 +3680,11 @@
       <c r="U21" s="60"/>
       <c r="V21" s="60"/>
       <c r="W21" s="63">
-        <v>4</v>
-      </c>
-      <c r="X21" s="63"/>
+        <v>3</v>
+      </c>
+      <c r="X21" s="63">
+        <v>2</v>
+      </c>
       <c r="Y21" s="56"/>
       <c r="Z21" s="57"/>
       <c r="AA21" s="58"/>
@@ -3734,7 +3736,7 @@
       </c>
       <c r="D22" s="83">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E22" s="50">
         <v>1</v>
@@ -3759,10 +3761,10 @@
       <c r="U22" s="60"/>
       <c r="V22" s="60"/>
       <c r="W22" s="63">
-        <v>4</v>
-      </c>
-      <c r="X22" s="63" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="X22" s="63">
+        <v>2</v>
       </c>
       <c r="Y22" s="56"/>
       <c r="Z22" s="57"/>
@@ -3783,7 +3785,9 @@
       <c r="AO22" s="58"/>
       <c r="AP22" s="59"/>
       <c r="AQ22" s="60"/>
-      <c r="AR22" s="55"/>
+      <c r="AR22" s="55">
+        <v>2</v>
+      </c>
       <c r="AS22" s="55"/>
       <c r="AT22" s="55"/>
       <c r="AU22" s="57"/>
@@ -3815,7 +3819,7 @@
       </c>
       <c r="D23" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E23" s="50">
         <v>1</v>
@@ -3839,9 +3843,11 @@
       <c r="T23" s="58"/>
       <c r="U23" s="60"/>
       <c r="V23" s="60"/>
-      <c r="W23" s="63"/>
-      <c r="X23" s="63" t="s">
-        <v>5</v>
+      <c r="W23" s="63">
+        <v>2</v>
+      </c>
+      <c r="X23" s="63">
+        <v>2</v>
       </c>
       <c r="Y23" s="56"/>
       <c r="Z23" s="57"/>
@@ -3894,7 +3900,7 @@
       </c>
       <c r="D24" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E24" s="50">
         <v>1</v>
@@ -3921,10 +3927,12 @@
       <c r="U24" s="60"/>
       <c r="V24" s="60"/>
       <c r="W24" s="63"/>
-      <c r="X24" s="87" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y24" s="56"/>
+      <c r="X24" s="87">
+        <v>2</v>
+      </c>
+      <c r="Y24" s="56">
+        <v>2</v>
+      </c>
       <c r="Z24" s="57"/>
       <c r="AA24" s="58"/>
       <c r="AB24" s="60"/>
@@ -3943,7 +3951,9 @@
       <c r="AO24" s="58"/>
       <c r="AP24" s="59"/>
       <c r="AQ24" s="60"/>
-      <c r="AR24" s="55"/>
+      <c r="AR24" s="55">
+        <v>2</v>
+      </c>
       <c r="AS24" s="55"/>
       <c r="AT24" s="55"/>
       <c r="AU24" s="57"/>
@@ -3975,7 +3985,7 @@
       </c>
       <c r="D25" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E25" s="50">
         <v>2</v>
@@ -3999,8 +4009,8 @@
       <c r="V25" s="60"/>
       <c r="W25" s="56"/>
       <c r="X25" s="56"/>
-      <c r="Y25" s="63" t="s">
-        <v>5</v>
+      <c r="Y25" s="63">
+        <v>6</v>
       </c>
       <c r="Z25" s="57"/>
       <c r="AA25" s="58"/>
@@ -4018,10 +4028,14 @@
       <c r="AM25" s="60"/>
       <c r="AN25" s="57"/>
       <c r="AO25" s="58"/>
-      <c r="AP25" s="59"/>
+      <c r="AP25" s="60"/>
       <c r="AQ25" s="60"/>
-      <c r="AR25" s="55"/>
-      <c r="AS25" s="55"/>
+      <c r="AR25" s="55">
+        <v>2</v>
+      </c>
+      <c r="AS25" s="55">
+        <v>4</v>
+      </c>
       <c r="AT25" s="55"/>
       <c r="AU25" s="57"/>
       <c r="AV25" s="58"/>
@@ -4093,7 +4107,7 @@
       <c r="AM26" s="60"/>
       <c r="AN26" s="57"/>
       <c r="AO26" s="58"/>
-      <c r="AP26" s="59"/>
+      <c r="AP26" s="60"/>
       <c r="AQ26" s="60"/>
       <c r="AR26" s="55"/>
       <c r="AS26" s="55"/>
@@ -4168,7 +4182,7 @@
       <c r="AM27" s="60"/>
       <c r="AN27" s="57"/>
       <c r="AO27" s="58"/>
-      <c r="AP27" s="59"/>
+      <c r="AP27" s="60"/>
       <c r="AQ27" s="60"/>
       <c r="AR27" s="55"/>
       <c r="AS27" s="55"/>
@@ -4237,7 +4251,7 @@
       <c r="AM28" s="60"/>
       <c r="AN28" s="57"/>
       <c r="AO28" s="58"/>
-      <c r="AP28" s="59"/>
+      <c r="AP28" s="60"/>
       <c r="AQ28" s="60"/>
       <c r="AR28" s="55"/>
       <c r="AS28" s="55"/>
@@ -4306,8 +4320,8 @@
       <c r="AM29" s="60"/>
       <c r="AN29" s="57"/>
       <c r="AO29" s="58"/>
-      <c r="AP29" s="71"/>
-      <c r="AQ29" s="72"/>
+      <c r="AP29" s="60"/>
+      <c r="AQ29" s="60"/>
       <c r="AR29" s="55"/>
       <c r="AS29" s="55"/>
       <c r="AT29" s="55"/>
@@ -4410,7 +4424,7 @@
       </c>
       <c r="D31" s="42">
         <f>SUM(D32:D35)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="31"/>
@@ -4483,7 +4497,7 @@
       </c>
       <c r="D32" s="83">
         <f>SUM(G32:BJ32)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32" s="50"/>
       <c r="F32" s="51"/>
@@ -4528,7 +4542,9 @@
         <v>5</v>
       </c>
       <c r="AS32" s="55"/>
-      <c r="AT32" s="55"/>
+      <c r="AT32" s="55">
+        <v>2</v>
+      </c>
       <c r="AU32" s="57"/>
       <c r="AV32" s="58"/>
       <c r="AW32" s="53"/>
@@ -4558,7 +4574,7 @@
       </c>
       <c r="D33" s="83">
         <f t="shared" ref="D33:D35" si="1">SUM(G33:BJ33)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E33" s="50"/>
       <c r="F33" s="51"/>
@@ -4603,7 +4619,9 @@
         <v>5</v>
       </c>
       <c r="AS33" s="55"/>
-      <c r="AT33" s="55"/>
+      <c r="AT33" s="55">
+        <v>2</v>
+      </c>
       <c r="AU33" s="57"/>
       <c r="AV33" s="58"/>
       <c r="AW33" s="59"/>
@@ -4633,7 +4651,7 @@
       </c>
       <c r="D34" s="83">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E34" s="50"/>
       <c r="F34" s="51"/>
@@ -4677,8 +4695,12 @@
       <c r="AR34" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="AS34" s="55"/>
-      <c r="AT34" s="55"/>
+      <c r="AS34" s="55">
+        <v>4</v>
+      </c>
+      <c r="AT34" s="55">
+        <v>2</v>
+      </c>
       <c r="AU34" s="57"/>
       <c r="AV34" s="58"/>
       <c r="AW34" s="59"/>
@@ -4996,7 +5018,7 @@
       </c>
       <c r="D39" s="42">
         <f>SUM(D40:D42)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="32"/>
       <c r="F39" s="31"/>
@@ -5144,7 +5166,7 @@
       </c>
       <c r="D41" s="83">
         <f t="shared" ref="D41:D42" si="2">SUM(G41:BJ41)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="50"/>
       <c r="F41" s="51"/>
@@ -5189,7 +5211,9 @@
       <c r="AS41" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="AT41" s="56"/>
+      <c r="AT41" s="56">
+        <v>1</v>
+      </c>
       <c r="AU41" s="57"/>
       <c r="AV41" s="58"/>
       <c r="AW41" s="59"/>
@@ -5287,7 +5311,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>54.25</v>
+        <v>92.25</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5361,11 +5385,11 @@
       </c>
       <c r="X43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z43" s="39">
         <f t="shared" si="3"/>
@@ -5441,15 +5465,15 @@
       </c>
       <c r="AR43" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AS43" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT43" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AU43" s="39">
         <f t="shared" si="4"/>
@@ -5532,7 +5556,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"Letter Gothic,Standard"&amp;9&amp;F, &amp;D&amp;C&amp;"Letter Gothic,Standard"&amp;9Seite &amp;P&amp;R&amp;"Letter Gothic,Standard"&amp;9ICT-Berufsbildung</oddFooter>
   </headerFooter>
@@ -5544,11 +5568,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5585,7 +5610,7 @@
       </c>
       <c r="D3" s="80">
         <f>Zeitplanung!D9</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="82"/>
       <c r="F3" s="81"/>
@@ -5619,7 +5644,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>
@@ -5636,7 +5661,7 @@
       </c>
       <c r="D6" s="80">
         <f>Zeitplanung!D31</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F6" s="81"/>
     </row>
@@ -5668,7 +5693,7 @@
       </c>
       <c r="D8" s="80">
         <f>Zeitplanung!D39</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="81"/>
     </row>
@@ -5684,7 +5709,7 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>